--- a/2. Accesos HOSTING - DOMINIO - INDEPENDIENTES.xlsx
+++ b/2. Accesos HOSTING - DOMINIO - INDEPENDIENTES.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollo\Desktop\archivos compartidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\caro dge\archivos compartidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Accesos Distribuidores de D+H" sheetId="1" r:id="rId1"/>
     <sheet name="Cuentas Dominio - Ind" sheetId="3" r:id="rId2"/>
     <sheet name="Hositng Ind - Deluxe" sheetId="11" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1775,7 +1775,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1810,7 +1810,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1997,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2515,7 +2515,7 @@
     <hyperlink ref="A6" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -2524,7 +2524,7 @@
   <dimension ref="B1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3658,8 +3658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3804,6 +3804,6 @@
     <hyperlink ref="B4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId6"/>
 </worksheet>
 </file>